--- a/stat_tests/combined_block_data_edited.xlsx
+++ b/stat_tests/combined_block_data_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebassil/Documents/Emory/3_Research/Projects/CogMap_Paper/stat_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{61433D3F-721A-8C4D-AA41-1A52EB34A84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9A940F9-67E1-4C43-8AF9-8107295BCC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_block_data_edited" sheetId="1" r:id="rId1"/>
@@ -640,27 +640,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -668,16 +648,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1014,7 +984,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1965,14 +1935,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.01</formula>
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.05</formula>
       <formula>0.01</formula>
     </cfRule>
